--- a/Corona.xlsx
+++ b/Corona.xlsx
@@ -25,9 +25,6 @@
     <t xml:space="preserve">date</t>
   </si>
   <si>
-    <t xml:space="preserve">Daily New Cases</t>
-  </si>
-  <si>
     <t xml:space="preserve">Daily Deaths</t>
   </si>
   <si>
@@ -35,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">Daily New Recoveries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily New Cases</t>
   </si>
 </sst>
 </file>
@@ -151,7 +151,7 @@
   <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -164,7 +164,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -180,7 +180,6 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -190,7 +189,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>43880</v>
       </c>
@@ -206,7 +205,6 @@
       <c r="E2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -216,7 +214,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>43881</v>
       </c>
@@ -224,15 +222,14 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>3</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -242,23 +239,22 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>43882</v>
       </c>
       <c r="B4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -268,23 +264,22 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>43883</v>
       </c>
       <c r="B5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -294,23 +289,22 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>43884</v>
       </c>
       <c r="B6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -320,23 +314,22 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>43885</v>
       </c>
       <c r="B7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -346,23 +339,22 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>43886</v>
       </c>
       <c r="B8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -372,23 +364,22 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>43887</v>
       </c>
       <c r="B9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -398,23 +389,22 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>43888</v>
       </c>
       <c r="B10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -424,23 +414,22 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>43889</v>
       </c>
       <c r="B11" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -450,23 +439,22 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>43890</v>
       </c>
       <c r="B12" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>427</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -476,23 +464,22 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>43891</v>
       </c>
       <c r="B13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="E13" s="1" t="n">
         <v>385</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>749</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -502,23 +489,22 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>43892</v>
       </c>
       <c r="B14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>1144</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="E14" s="1" t="n">
         <v>523</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>1144</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -528,23 +514,22 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>43893</v>
       </c>
       <c r="B15" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>1824</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="E15" s="1" t="n">
         <v>835</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>1824</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -554,23 +539,22 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>43894</v>
       </c>
       <c r="B16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>2278</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="E16" s="1" t="n">
         <v>586</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>2278</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -580,23 +564,22 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>43895</v>
       </c>
       <c r="B17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>2666</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="E17" s="1" t="n">
         <v>591</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>2666</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -606,23 +589,22 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>43896</v>
       </c>
       <c r="B18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>3710</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="E18" s="1" t="n">
         <v>1234</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>3710</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -632,23 +614,22 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>43897</v>
       </c>
       <c r="B19" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>4009</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>756</v>
+      </c>
+      <c r="E19" s="1" t="n">
         <v>1076</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>4009</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>756</v>
-      </c>
-      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -658,23 +639,22 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>43898</v>
       </c>
       <c r="B20" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>4238</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="E20" s="1" t="n">
         <v>743</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>4238</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>465</v>
-      </c>
-      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -684,23 +664,22 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>43899</v>
       </c>
       <c r="B21" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>4530</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="E21" s="1" t="n">
         <v>595</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>4530</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -710,23 +689,22 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>43900</v>
       </c>
       <c r="B22" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>5020</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="E22" s="1" t="n">
         <v>881</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>5020</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -736,23 +714,22 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>43901</v>
       </c>
       <c r="B23" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>5687</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="E23" s="1" t="n">
         <v>958</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>5687</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -762,23 +739,22 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
         <v>43902</v>
       </c>
       <c r="B24" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>6370</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="E24" s="1" t="n">
         <v>1075</v>
       </c>
-      <c r="C24" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="D24" s="1" t="n">
-        <v>6370</v>
-      </c>
-      <c r="E24" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -788,23 +764,22 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>43903</v>
       </c>
       <c r="B25" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>7321</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="E25" s="1" t="n">
         <v>1289</v>
       </c>
-      <c r="C25" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="D25" s="1" t="n">
-        <v>7321</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -814,23 +789,22 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
         <v>43904</v>
       </c>
       <c r="B26" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>7779</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>810</v>
+      </c>
+      <c r="E26" s="1" t="n">
         <v>1365</v>
       </c>
-      <c r="C26" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="D26" s="1" t="n">
-        <v>7779</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>810</v>
-      </c>
-      <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -840,23 +814,22 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
         <v>43905</v>
       </c>
       <c r="B27" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>8624</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="E27" s="1" t="n">
         <v>1209</v>
       </c>
-      <c r="C27" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="D27" s="1" t="n">
-        <v>8624</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -866,23 +839,22 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
         <v>43906</v>
       </c>
       <c r="B28" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>9142</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="E28" s="1" t="n">
         <v>1053</v>
       </c>
-      <c r="C28" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="D28" s="1" t="n">
-        <v>9142</v>
-      </c>
-      <c r="E28" s="1" t="n">
-        <v>406</v>
-      </c>
-      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -892,23 +864,22 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
         <v>43907</v>
       </c>
       <c r="B29" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>9792</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="E29" s="1" t="n">
         <v>1178</v>
       </c>
-      <c r="C29" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="D29" s="1" t="n">
-        <v>9792</v>
-      </c>
-      <c r="E29" s="1" t="n">
-        <v>393</v>
-      </c>
-      <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -918,23 +889,22 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
         <v>43908</v>
       </c>
       <c r="B30" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>10516</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="E30" s="1" t="n">
         <v>1192</v>
       </c>
-      <c r="C30" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="D30" s="1" t="n">
-        <v>10516</v>
-      </c>
-      <c r="E30" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -944,23 +914,22 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
         <v>43909</v>
       </c>
       <c r="B31" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>11144</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="E31" s="1" t="n">
         <v>1046</v>
       </c>
-      <c r="C31" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="D31" s="1" t="n">
-        <v>11144</v>
-      </c>
-      <c r="E31" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -970,23 +939,22 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
         <v>43910</v>
       </c>
       <c r="B32" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>11466</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>766</v>
+      </c>
+      <c r="E32" s="1" t="n">
         <v>1237</v>
       </c>
-      <c r="C32" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="D32" s="1" t="n">
-        <v>11466</v>
-      </c>
-      <c r="E32" s="1" t="n">
-        <v>766</v>
-      </c>
-      <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -996,23 +964,22 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
         <v>43911</v>
       </c>
       <c r="B33" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>11419</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>890</v>
+      </c>
+      <c r="E33" s="1" t="n">
         <v>966</v>
       </c>
-      <c r="C33" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="D33" s="1" t="n">
-        <v>11419</v>
-      </c>
-      <c r="E33" s="1" t="n">
-        <v>890</v>
-      </c>
-      <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -1022,23 +989,22 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
         <v>43912</v>
       </c>
       <c r="B34" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>12040</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="E34" s="1" t="n">
         <v>1028</v>
       </c>
-      <c r="C34" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="D34" s="1" t="n">
-        <v>12040</v>
-      </c>
-      <c r="E34" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -1048,23 +1014,22 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
         <v>43913</v>
       </c>
       <c r="B35" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>12861</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="E35" s="1" t="n">
         <v>1411</v>
       </c>
-      <c r="C35" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="D35" s="1" t="n">
-        <v>12861</v>
-      </c>
-      <c r="E35" s="1" t="n">
-        <v>463</v>
-      </c>
-      <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -1074,23 +1039,22 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
         <v>43914</v>
       </c>
       <c r="B36" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>13964</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="E36" s="1" t="n">
         <v>1762</v>
       </c>
-      <c r="C36" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="D36" s="1" t="n">
-        <v>13964</v>
-      </c>
-      <c r="E36" s="1" t="n">
-        <v>537</v>
-      </c>
-      <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -1100,23 +1064,22 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
         <v>43915</v>
       </c>
       <c r="B37" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>15315</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="E37" s="1" t="n">
         <v>2206</v>
       </c>
-      <c r="C37" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="D37" s="1" t="n">
-        <v>15315</v>
-      </c>
-      <c r="E37" s="1" t="n">
-        <v>712</v>
-      </c>
-      <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -1126,23 +1089,22 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
         <v>43916</v>
       </c>
       <c r="B38" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>16715</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>832</v>
+      </c>
+      <c r="E38" s="1" t="n">
         <v>2389</v>
       </c>
-      <c r="C38" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="D38" s="1" t="n">
-        <v>16715</v>
-      </c>
-      <c r="E38" s="1" t="n">
-        <v>832</v>
-      </c>
-      <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -1152,23 +1114,22 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
         <v>43917</v>
       </c>
       <c r="B39" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>18821</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>676</v>
+      </c>
+      <c r="E39" s="1" t="n">
         <v>2926</v>
       </c>
-      <c r="C39" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="D39" s="1" t="n">
-        <v>18821</v>
-      </c>
-      <c r="E39" s="1" t="n">
-        <v>676</v>
-      </c>
-      <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -1178,23 +1139,22 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
         <v>43918</v>
       </c>
       <c r="B40" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>21212</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="E40" s="1" t="n">
         <v>3076</v>
       </c>
-      <c r="C40" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="D40" s="1" t="n">
-        <v>21212</v>
-      </c>
-      <c r="E40" s="1" t="n">
-        <v>546</v>
-      </c>
-      <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -1204,23 +1164,22 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
         <v>43919</v>
       </c>
       <c r="B41" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>23278</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="E41" s="1" t="n">
         <v>2901</v>
       </c>
-      <c r="C41" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="D41" s="1" t="n">
-        <v>23278</v>
-      </c>
-      <c r="E41" s="1" t="n">
-        <v>712</v>
-      </c>
-      <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -1230,23 +1189,22 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
         <v>43920</v>
       </c>
       <c r="B42" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>24827</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>1520</v>
+      </c>
+      <c r="E42" s="1" t="n">
         <v>3186</v>
       </c>
-      <c r="C42" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="D42" s="1" t="n">
-        <v>24827</v>
-      </c>
-      <c r="E42" s="1" t="n">
-        <v>1520</v>
-      </c>
-      <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -1256,23 +1214,22 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
         <v>43921</v>
       </c>
       <c r="B43" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>27051</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="E43" s="1" t="n">
         <v>3110</v>
       </c>
-      <c r="C43" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="D43" s="1" t="n">
-        <v>27051</v>
-      </c>
-      <c r="E43" s="1" t="n">
-        <v>745</v>
-      </c>
-      <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -1282,23 +1239,22 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
         <v>43922</v>
       </c>
       <c r="B44" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>29084</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>817</v>
+      </c>
+      <c r="E44" s="1" t="n">
         <v>2988</v>
       </c>
-      <c r="C44" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="D44" s="1" t="n">
-        <v>29084</v>
-      </c>
-      <c r="E44" s="1" t="n">
-        <v>817</v>
-      </c>
-      <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -1308,23 +1264,22 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
         <v>43923</v>
       </c>
       <c r="B45" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>30597</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>1238</v>
+      </c>
+      <c r="E45" s="1" t="n">
         <v>2875</v>
       </c>
-      <c r="C45" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="D45" s="1" t="n">
-        <v>30597</v>
-      </c>
-      <c r="E45" s="1" t="n">
-        <v>1238</v>
-      </c>
-      <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -1334,23 +1289,22 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
         <v>43924</v>
       </c>
       <c r="B46" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>31954</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>1224</v>
+      </c>
+      <c r="E46" s="1" t="n">
         <v>2715</v>
       </c>
-      <c r="C46" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="D46" s="1" t="n">
-        <v>31954</v>
-      </c>
-      <c r="E46" s="1" t="n">
-        <v>1224</v>
-      </c>
-      <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -1360,23 +1314,22 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
         <v>43925</v>
       </c>
       <c r="B47" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>32555</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>1801</v>
+      </c>
+      <c r="E47" s="1" t="n">
         <v>2560</v>
       </c>
-      <c r="C47" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="D47" s="1" t="n">
-        <v>32555</v>
-      </c>
-      <c r="E47" s="1" t="n">
-        <v>1801</v>
-      </c>
-      <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -1386,23 +1339,22 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
         <v>43926</v>
       </c>
       <c r="B48" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>32612</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>2275</v>
+      </c>
+      <c r="E48" s="1" t="n">
         <v>2483</v>
       </c>
-      <c r="C48" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="D48" s="1" t="n">
-        <v>32612</v>
-      </c>
-      <c r="E48" s="1" t="n">
-        <v>2275</v>
-      </c>
-      <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -1412,23 +1364,22 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
         <v>43927</v>
       </c>
       <c r="B49" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>32525</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>2225</v>
+      </c>
+      <c r="E49" s="1" t="n">
         <v>2274</v>
       </c>
-      <c r="C49" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="D49" s="1" t="n">
-        <v>32525</v>
-      </c>
-      <c r="E49" s="1" t="n">
-        <v>2225</v>
-      </c>
-      <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -1438,23 +1389,22 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
         <v>43928</v>
       </c>
       <c r="B50" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>31678</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>2803</v>
+      </c>
+      <c r="E50" s="1" t="n">
         <v>2089</v>
       </c>
-      <c r="C50" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="D50" s="1" t="n">
-        <v>31678</v>
-      </c>
-      <c r="E50" s="1" t="n">
-        <v>2803</v>
-      </c>
-      <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -1464,23 +1414,22 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
         <v>43929</v>
       </c>
       <c r="B51" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>30781</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>2773</v>
+      </c>
+      <c r="E51" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="C51" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="D51" s="1" t="n">
-        <v>30781</v>
-      </c>
-      <c r="E51" s="1" t="n">
-        <v>2773</v>
-      </c>
-      <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -1490,23 +1439,22 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
         <v>43930</v>
       </c>
       <c r="B52" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>29801</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>2497</v>
+      </c>
+      <c r="E52" s="1" t="n">
         <v>1634</v>
       </c>
-      <c r="C52" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="D52" s="1" t="n">
-        <v>29801</v>
-      </c>
-      <c r="E52" s="1" t="n">
-        <v>2497</v>
-      </c>
-      <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -1516,23 +1464,22 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
         <v>43931</v>
       </c>
       <c r="B53" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>28495</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>3156</v>
+      </c>
+      <c r="E53" s="1" t="n">
         <v>1972</v>
       </c>
-      <c r="C53" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="D53" s="1" t="n">
-        <v>28495</v>
-      </c>
-      <c r="E53" s="1" t="n">
-        <v>3156</v>
-      </c>
-      <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -1542,23 +1489,22 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
         <v>43932</v>
       </c>
       <c r="B54" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>23725</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>6482</v>
+      </c>
+      <c r="E54" s="1" t="n">
         <v>1837</v>
       </c>
-      <c r="C54" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="D54" s="1" t="n">
-        <v>23725</v>
-      </c>
-      <c r="E54" s="1" t="n">
-        <v>6482</v>
-      </c>
-      <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -1568,23 +1514,22 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
         <v>43933</v>
       </c>
       <c r="B55" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>23318</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>1947</v>
+      </c>
+      <c r="E55" s="1" t="n">
         <v>1657</v>
       </c>
-      <c r="C55" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="D55" s="1" t="n">
-        <v>23318</v>
-      </c>
-      <c r="E55" s="1" t="n">
-        <v>1947</v>
-      </c>
-      <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -1594,23 +1539,22 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
         <v>43934</v>
       </c>
       <c r="B56" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>22735</v>
+      </c>
+      <c r="D56" s="1" t="n">
+        <v>2089</v>
+      </c>
+      <c r="E56" s="1" t="n">
         <v>1617</v>
       </c>
-      <c r="C56" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="D56" s="1" t="n">
-        <v>22735</v>
-      </c>
-      <c r="E56" s="1" t="n">
-        <v>2089</v>
-      </c>
-      <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -1620,23 +1564,22 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
         <v>43935</v>
       </c>
       <c r="B57" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>22065</v>
+      </c>
+      <c r="D57" s="1" t="n">
+        <v>2146</v>
+      </c>
+      <c r="E57" s="1" t="n">
         <v>1574</v>
       </c>
-      <c r="C57" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="D57" s="1" t="n">
-        <v>22065</v>
-      </c>
-      <c r="E57" s="1" t="n">
-        <v>2146</v>
-      </c>
-      <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -1646,23 +1589,22 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
         <v>43936</v>
       </c>
       <c r="B58" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>21679</v>
+      </c>
+      <c r="D58" s="1" t="n">
+        <v>1804</v>
+      </c>
+      <c r="E58" s="1" t="n">
         <v>1512</v>
       </c>
-      <c r="C58" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="D58" s="1" t="n">
-        <v>21679</v>
-      </c>
-      <c r="E58" s="1" t="n">
-        <v>1804</v>
-      </c>
-      <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -1672,23 +1614,22 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
         <v>43937</v>
       </c>
       <c r="B59" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>20897</v>
+      </c>
+      <c r="D59" s="1" t="n">
+        <v>2296</v>
+      </c>
+      <c r="E59" s="1" t="n">
         <v>1606</v>
       </c>
-      <c r="C59" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="D59" s="1" t="n">
-        <v>20897</v>
-      </c>
-      <c r="E59" s="1" t="n">
-        <v>2296</v>
-      </c>
-      <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -1698,23 +1639,22 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
         <v>43938</v>
       </c>
       <c r="B60" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>20472</v>
+      </c>
+      <c r="D60" s="1" t="n">
+        <v>1835</v>
+      </c>
+      <c r="E60" s="1" t="n">
         <v>1499</v>
       </c>
-      <c r="C60" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="D60" s="1" t="n">
-        <v>20472</v>
-      </c>
-      <c r="E60" s="1" t="n">
-        <v>1835</v>
-      </c>
-      <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -1724,23 +1664,22 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
         <v>43939</v>
       </c>
       <c r="B61" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>19850</v>
+      </c>
+      <c r="D61" s="1" t="n">
+        <v>1923</v>
+      </c>
+      <c r="E61" s="1" t="n">
         <v>1374</v>
       </c>
-      <c r="C61" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="D61" s="1" t="n">
-        <v>19850</v>
-      </c>
-      <c r="E61" s="1" t="n">
-        <v>1923</v>
-      </c>
-      <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -1750,23 +1689,22 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
         <v>43940</v>
       </c>
       <c r="B62" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>20070</v>
+      </c>
+      <c r="D62" s="1" t="n">
+        <v>1036</v>
+      </c>
+      <c r="E62" s="1" t="n">
         <v>1343</v>
       </c>
-      <c r="C62" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="D62" s="1" t="n">
-        <v>20070</v>
-      </c>
-      <c r="E62" s="1" t="n">
-        <v>1036</v>
-      </c>
-      <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -1776,23 +1714,22 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
         <v>43941</v>
       </c>
       <c r="B63" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>19023</v>
+      </c>
+      <c r="D63" s="1" t="n">
+        <v>2250</v>
+      </c>
+      <c r="E63" s="1" t="n">
         <v>1294</v>
       </c>
-      <c r="C63" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="D63" s="1" t="n">
-        <v>19023</v>
-      </c>
-      <c r="E63" s="1" t="n">
-        <v>2250</v>
-      </c>
-      <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -1802,23 +1739,22 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
         <v>43942</v>
       </c>
       <c r="B64" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>18540</v>
+      </c>
+      <c r="D64" s="1" t="n">
+        <v>1692</v>
+      </c>
+      <c r="E64" s="1" t="n">
         <v>1297</v>
       </c>
-      <c r="C64" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="D64" s="1" t="n">
-        <v>18540</v>
-      </c>
-      <c r="E64" s="1" t="n">
-        <v>1692</v>
-      </c>
-      <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -1828,23 +1764,22 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
         <v>43943</v>
       </c>
       <c r="B65" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>17492</v>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>2148</v>
+      </c>
+      <c r="E65" s="1" t="n">
         <v>1194</v>
       </c>
-      <c r="C65" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="D65" s="1" t="n">
-        <v>17492</v>
-      </c>
-      <c r="E65" s="1" t="n">
-        <v>2148</v>
-      </c>
-      <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -1854,23 +1789,22 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
         <v>43944</v>
       </c>
       <c r="B66" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>16702</v>
+      </c>
+      <c r="D66" s="1" t="n">
+        <v>1730</v>
+      </c>
+      <c r="E66" s="1" t="n">
         <v>1030</v>
       </c>
-      <c r="C66" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="D66" s="1" t="n">
-        <v>16702</v>
-      </c>
-      <c r="E66" s="1" t="n">
-        <v>1730</v>
-      </c>
-      <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -1880,23 +1814,22 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
         <v>43945</v>
       </c>
       <c r="B67" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>16021</v>
+      </c>
+      <c r="D67" s="1" t="n">
+        <v>1756</v>
+      </c>
+      <c r="E67" s="1" t="n">
         <v>1168</v>
       </c>
-      <c r="C67" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="D67" s="1" t="n">
-        <v>16021</v>
-      </c>
-      <c r="E67" s="1" t="n">
-        <v>1756</v>
-      </c>
-      <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -1906,23 +1839,22 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="n">
         <v>43946</v>
       </c>
       <c r="B68" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="C68" s="1" t="n">
+        <v>15485</v>
+      </c>
+      <c r="D68" s="1" t="n">
+        <v>1594</v>
+      </c>
+      <c r="E68" s="1" t="n">
         <v>1134</v>
       </c>
-      <c r="C68" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="D68" s="1" t="n">
-        <v>15485</v>
-      </c>
-      <c r="E68" s="1" t="n">
-        <v>1594</v>
-      </c>
-      <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -1932,23 +1864,22 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="n">
         <v>43947</v>
       </c>
       <c r="B69" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>15114</v>
+      </c>
+      <c r="D69" s="1" t="n">
+        <v>1464</v>
+      </c>
+      <c r="E69" s="1" t="n">
         <v>1153</v>
       </c>
-      <c r="C69" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="D69" s="1" t="n">
-        <v>15114</v>
-      </c>
-      <c r="E69" s="1" t="n">
-        <v>1464</v>
-      </c>
-      <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -1958,23 +1889,22 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="n">
         <v>43948</v>
       </c>
       <c r="B70" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>14733</v>
+      </c>
+      <c r="D70" s="1" t="n">
+        <v>1276</v>
+      </c>
+      <c r="E70" s="1" t="n">
         <v>991</v>
       </c>
-      <c r="C70" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="D70" s="1" t="n">
-        <v>14733</v>
-      </c>
-      <c r="E70" s="1" t="n">
-        <v>1276</v>
-      </c>
-      <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -1984,23 +1914,22 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="n">
         <v>43949</v>
       </c>
       <c r="B71" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>14268</v>
+      </c>
+      <c r="D71" s="1" t="n">
+        <v>1506</v>
+      </c>
+      <c r="E71" s="1" t="n">
         <v>1112</v>
       </c>
-      <c r="C71" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="D71" s="1" t="n">
-        <v>14268</v>
-      </c>
-      <c r="E71" s="1" t="n">
-        <v>1506</v>
-      </c>
-      <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -2010,23 +1939,22 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
         <v>43950</v>
       </c>
       <c r="B72" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>13909</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>1352</v>
+      </c>
+      <c r="E72" s="1" t="n">
         <v>1073</v>
       </c>
-      <c r="C72" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="D72" s="1" t="n">
-        <v>13909</v>
-      </c>
-      <c r="E72" s="1" t="n">
-        <v>1352</v>
-      </c>
-      <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -2036,23 +1964,22 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="n">
         <v>43951</v>
       </c>
       <c r="B73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>13509</v>
+      </c>
+      <c r="D73" s="1" t="n">
+        <v>1312</v>
+      </c>
+      <c r="E73" s="1" t="n">
         <v>983</v>
       </c>
-      <c r="C73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="D73" s="1" t="n">
-        <v>13509</v>
-      </c>
-      <c r="E73" s="1" t="n">
-        <v>1312</v>
-      </c>
-      <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -2062,23 +1989,22 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="n">
         <v>43952</v>
       </c>
       <c r="B74" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>13237</v>
+      </c>
+      <c r="D74" s="1" t="n">
+        <v>1215</v>
+      </c>
+      <c r="E74" s="1" t="n">
         <v>1006</v>
       </c>
-      <c r="C74" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="D74" s="1" t="n">
-        <v>13237</v>
-      </c>
-      <c r="E74" s="1" t="n">
-        <v>1215</v>
-      </c>
-      <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -2088,23 +2014,22 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="n">
         <v>43953</v>
       </c>
       <c r="B75" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>12942</v>
+      </c>
+      <c r="D75" s="1" t="n">
+        <v>1032</v>
+      </c>
+      <c r="E75" s="1" t="n">
         <v>802</v>
       </c>
-      <c r="C75" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="D75" s="1" t="n">
-        <v>12942</v>
-      </c>
-      <c r="E75" s="1" t="n">
-        <v>1032</v>
-      </c>
-      <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -2114,23 +2039,22 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="n">
         <v>43954</v>
       </c>
       <c r="B76" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>12799</v>
+      </c>
+      <c r="D76" s="1" t="n">
+        <v>1072</v>
+      </c>
+      <c r="E76" s="1" t="n">
         <v>976</v>
       </c>
-      <c r="C76" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="D76" s="1" t="n">
-        <v>12799</v>
-      </c>
-      <c r="E76" s="1" t="n">
-        <v>1072</v>
-      </c>
-      <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -2140,23 +2064,22 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="n">
         <v>43955</v>
       </c>
       <c r="B77" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>12991</v>
+      </c>
+      <c r="D77" s="1" t="n">
+        <v>957</v>
+      </c>
+      <c r="E77" s="1" t="n">
         <v>1223</v>
       </c>
-      <c r="C77" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="D77" s="1" t="n">
-        <v>12991</v>
-      </c>
-      <c r="E77" s="1" t="n">
-        <v>957</v>
-      </c>
-      <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -2166,23 +2089,22 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="n">
         <v>43956</v>
       </c>
       <c r="B78" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>13155</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <v>1096</v>
+      </c>
+      <c r="E78" s="1" t="n">
         <v>1323</v>
       </c>
-      <c r="C78" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="D78" s="1" t="n">
-        <v>13155</v>
-      </c>
-      <c r="E78" s="1" t="n">
-        <v>1096</v>
-      </c>
-      <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -2192,23 +2114,22 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="n">
         <v>43957</v>
       </c>
       <c r="B79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>13645</v>
+      </c>
+      <c r="D79" s="1" t="n">
+        <v>1112</v>
+      </c>
+      <c r="E79" s="1" t="n">
         <v>1680</v>
       </c>
-      <c r="C79" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="D79" s="1" t="n">
-        <v>13645</v>
-      </c>
-      <c r="E79" s="1" t="n">
-        <v>1112</v>
-      </c>
-      <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -2218,23 +2139,22 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="n">
         <v>43958</v>
       </c>
       <c r="B80" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>13905</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <v>1157</v>
+      </c>
+      <c r="E80" s="1" t="n">
         <v>1485</v>
       </c>
-      <c r="C80" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="D80" s="1" t="n">
-        <v>13905</v>
-      </c>
-      <c r="E80" s="1" t="n">
-        <v>1157</v>
-      </c>
-      <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -2244,23 +2164,22 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="n">
         <v>43959</v>
       </c>
       <c r="B81" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>14313</v>
+      </c>
+      <c r="D81" s="1" t="n">
+        <v>1093</v>
+      </c>
+      <c r="E81" s="1" t="n">
         <v>1556</v>
       </c>
-      <c r="C81" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="D81" s="1" t="n">
-        <v>14313</v>
-      </c>
-      <c r="E81" s="1" t="n">
-        <v>1093</v>
-      </c>
-      <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -2270,23 +2189,22 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="n">
         <v>43960</v>
       </c>
       <c r="B82" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>14567</v>
+      </c>
+      <c r="D82" s="1" t="n">
+        <v>1227</v>
+      </c>
+      <c r="E82" s="1" t="n">
         <v>1529</v>
       </c>
-      <c r="C82" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="D82" s="1" t="n">
-        <v>14567</v>
-      </c>
-      <c r="E82" s="1" t="n">
-        <v>1227</v>
-      </c>
-      <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -2296,23 +2214,22 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="n">
         <v>43961</v>
       </c>
       <c r="B83" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>14820</v>
+      </c>
+      <c r="D83" s="1" t="n">
+        <v>1079</v>
+      </c>
+      <c r="E83" s="1" t="n">
         <v>1383</v>
       </c>
-      <c r="C83" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="D83" s="1" t="n">
-        <v>14820</v>
-      </c>
-      <c r="E83" s="1" t="n">
-        <v>1079</v>
-      </c>
-      <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -2322,23 +2239,22 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="n">
         <v>43962</v>
       </c>
       <c r="B84" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>15179</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>1279</v>
+      </c>
+      <c r="E84" s="1" t="n">
         <v>1683</v>
       </c>
-      <c r="C84" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="D84" s="1" t="n">
-        <v>15179</v>
-      </c>
-      <c r="E84" s="1" t="n">
-        <v>1279</v>
-      </c>
-      <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -2348,23 +2264,22 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="n">
         <v>43963</v>
       </c>
       <c r="B85" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>15677</v>
+      </c>
+      <c r="D85" s="1" t="n">
+        <v>935</v>
+      </c>
+      <c r="E85" s="1" t="n">
         <v>1481</v>
       </c>
-      <c r="C85" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="D85" s="1" t="n">
-        <v>15677</v>
-      </c>
-      <c r="E85" s="1" t="n">
-        <v>935</v>
-      </c>
-      <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -2374,23 +2289,22 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="n">
         <v>43964</v>
       </c>
       <c r="B86" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>16514</v>
+      </c>
+      <c r="D86" s="1" t="n">
+        <v>1071</v>
+      </c>
+      <c r="E86" s="1" t="n">
         <v>1958</v>
       </c>
-      <c r="C86" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="D86" s="1" t="n">
-        <v>16514</v>
-      </c>
-      <c r="E86" s="1" t="n">
-        <v>1071</v>
-      </c>
-      <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -2400,23 +2314,22 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="n">
         <v>43965</v>
       </c>
       <c r="B87" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>17140</v>
+      </c>
+      <c r="D87" s="1" t="n">
+        <v>1111</v>
+      </c>
+      <c r="E87" s="1" t="n">
         <v>1808</v>
       </c>
-      <c r="C87" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="D87" s="1" t="n">
-        <v>17140</v>
-      </c>
-      <c r="E87" s="1" t="n">
-        <v>1111</v>
-      </c>
-      <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -2426,23 +2339,22 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="n">
         <v>43966</v>
       </c>
       <c r="B88" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>17897</v>
+      </c>
+      <c r="D88" s="1" t="n">
+        <v>1297</v>
+      </c>
+      <c r="E88" s="1" t="n">
         <v>2102</v>
       </c>
-      <c r="C88" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="D88" s="1" t="n">
-        <v>17897</v>
-      </c>
-      <c r="E88" s="1" t="n">
-        <v>1297</v>
-      </c>
-      <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -2452,23 +2364,22 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="n">
         <v>43967</v>
       </c>
       <c r="B89" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>18308</v>
+      </c>
+      <c r="D89" s="1" t="n">
+        <v>1311</v>
+      </c>
+      <c r="E89" s="1" t="n">
         <v>1757</v>
       </c>
-      <c r="C89" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="D89" s="1" t="n">
-        <v>18308</v>
-      </c>
-      <c r="E89" s="1" t="n">
-        <v>1311</v>
-      </c>
-      <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -2478,23 +2389,22 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="n">
         <v>43968</v>
       </c>
       <c r="B90" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>18746</v>
+      </c>
+      <c r="D90" s="1" t="n">
+        <v>1317</v>
+      </c>
+      <c r="E90" s="1" t="n">
         <v>1806</v>
       </c>
-      <c r="C90" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="D90" s="1" t="n">
-        <v>18746</v>
-      </c>
-      <c r="E90" s="1" t="n">
-        <v>1317</v>
-      </c>
-      <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -2504,23 +2414,22 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="n">
         <v>43969</v>
       </c>
       <c r="B91" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="C91" s="1" t="n">
+        <v>19774</v>
+      </c>
+      <c r="D91" s="1" t="n">
+        <v>1197</v>
+      </c>
+      <c r="E91" s="1" t="n">
         <v>2294</v>
       </c>
-      <c r="C91" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="D91" s="1" t="n">
-        <v>19774</v>
-      </c>
-      <c r="E91" s="1" t="n">
-        <v>1197</v>
-      </c>
-      <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -2530,23 +2439,22 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="n">
         <v>43970</v>
       </c>
       <c r="B92" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="C92" s="1" t="n">
+        <v>20311</v>
+      </c>
+      <c r="D92" s="1" t="n">
+        <v>1512</v>
+      </c>
+      <c r="E92" s="1" t="n">
         <v>2111</v>
       </c>
-      <c r="C92" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="D92" s="1" t="n">
-        <v>20311</v>
-      </c>
-      <c r="E92" s="1" t="n">
-        <v>1512</v>
-      </c>
-      <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -2556,23 +2464,22 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="n">
         <v>43971</v>
       </c>
       <c r="B93" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="C93" s="1" t="n">
+        <v>20958</v>
+      </c>
+      <c r="D93" s="1" t="n">
+        <v>1635</v>
+      </c>
+      <c r="E93" s="1" t="n">
         <v>2346</v>
       </c>
-      <c r="C93" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="D93" s="1" t="n">
-        <v>20958</v>
-      </c>
-      <c r="E93" s="1" t="n">
-        <v>1635</v>
-      </c>
-      <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -2582,23 +2489,22 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="n">
         <v>43972</v>
       </c>
       <c r="B94" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C94" s="1" t="n">
+        <v>21528</v>
+      </c>
+      <c r="D94" s="1" t="n">
+        <v>1756</v>
+      </c>
+      <c r="E94" s="1" t="n">
         <v>2392</v>
       </c>
-      <c r="C94" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="D94" s="1" t="n">
-        <v>21528</v>
-      </c>
-      <c r="E94" s="1" t="n">
-        <v>1756</v>
-      </c>
-      <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -2608,23 +2514,22 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="n">
         <v>43973</v>
       </c>
       <c r="B95" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="C95" s="1" t="n">
+        <v>22076</v>
+      </c>
+      <c r="D95" s="1" t="n">
+        <v>1712</v>
+      </c>
+      <c r="E95" s="1" t="n">
         <v>2311</v>
       </c>
-      <c r="C95" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="D95" s="1" t="n">
-        <v>22076</v>
-      </c>
-      <c r="E95" s="1" t="n">
-        <v>1712</v>
-      </c>
-      <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -2634,23 +2539,22 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="n">
         <v>43974</v>
       </c>
       <c r="B96" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="C96" s="1" t="n">
+        <v>22090</v>
+      </c>
+      <c r="D96" s="1" t="n">
+        <v>1796</v>
+      </c>
+      <c r="E96" s="1" t="n">
         <v>1869</v>
       </c>
-      <c r="C96" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="D96" s="1" t="n">
-        <v>22090</v>
-      </c>
-      <c r="E96" s="1" t="n">
-        <v>1796</v>
-      </c>
-      <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -2660,23 +2564,22 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="n">
         <v>43975</v>
       </c>
       <c r="B97" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="C97" s="1" t="n">
+        <v>22483</v>
+      </c>
+      <c r="D97" s="1" t="n">
+        <v>1729</v>
+      </c>
+      <c r="E97" s="1" t="n">
         <v>2180</v>
       </c>
-      <c r="C97" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="D97" s="1" t="n">
-        <v>22483</v>
-      </c>
-      <c r="E97" s="1" t="n">
-        <v>1729</v>
-      </c>
-      <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -2686,23 +2589,22 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="n">
         <v>43976</v>
       </c>
       <c r="B98" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="C98" s="1" t="n">
+        <v>22560</v>
+      </c>
+      <c r="D98" s="1" t="n">
+        <v>1912</v>
+      </c>
+      <c r="E98" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="C98" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="D98" s="1" t="n">
-        <v>22560</v>
-      </c>
-      <c r="E98" s="1" t="n">
-        <v>1912</v>
-      </c>
-      <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -2712,23 +2614,22 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="n">
         <v>43977</v>
       </c>
       <c r="B99" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="C99" s="1" t="n">
+        <v>22566</v>
+      </c>
+      <c r="D99" s="1" t="n">
+        <v>1724</v>
+      </c>
+      <c r="E99" s="1" t="n">
         <v>1787</v>
       </c>
-      <c r="C99" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="D99" s="1" t="n">
-        <v>22566</v>
-      </c>
-      <c r="E99" s="1" t="n">
-        <v>1724</v>
-      </c>
-      <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -2738,23 +2639,22 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="n">
         <v>43978</v>
       </c>
       <c r="B100" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="C100" s="1" t="n">
+        <v>22851</v>
+      </c>
+      <c r="D100" s="1" t="n">
+        <v>1739</v>
+      </c>
+      <c r="E100" s="1" t="n">
         <v>2080</v>
       </c>
-      <c r="C100" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="D100" s="1" t="n">
-        <v>22851</v>
-      </c>
-      <c r="E100" s="1" t="n">
-        <v>1739</v>
-      </c>
-      <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -2764,23 +2664,22 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="n">
         <v>43979</v>
       </c>
       <c r="B101" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="C101" s="1" t="n">
+        <v>23234</v>
+      </c>
+      <c r="D101" s="1" t="n">
+        <v>1812</v>
+      </c>
+      <c r="E101" s="1" t="n">
         <v>2258</v>
       </c>
-      <c r="C101" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="D101" s="1" t="n">
-        <v>23234</v>
-      </c>
-      <c r="E101" s="1" t="n">
-        <v>1812</v>
-      </c>
-      <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -2790,23 +2689,22 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="n">
         <v>43980</v>
       </c>
       <c r="B102" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C102" s="1" t="n">
+        <v>24060</v>
+      </c>
+      <c r="D102" s="1" t="n">
+        <v>1943</v>
+      </c>
+      <c r="E102" s="1" t="n">
         <v>2819</v>
       </c>
-      <c r="C102" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="D102" s="1" t="n">
-        <v>24060</v>
-      </c>
-      <c r="E102" s="1" t="n">
-        <v>1943</v>
-      </c>
-      <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -2816,23 +2714,22 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="n">
         <v>43981</v>
       </c>
       <c r="B103" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="C103" s="1" t="n">
+        <v>24389</v>
+      </c>
+      <c r="D103" s="1" t="n">
+        <v>1896</v>
+      </c>
+      <c r="E103" s="1" t="n">
         <v>2282</v>
       </c>
-      <c r="C103" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="D103" s="1" t="n">
-        <v>24389</v>
-      </c>
-      <c r="E103" s="1" t="n">
-        <v>1896</v>
-      </c>
-      <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -2842,23 +2739,22 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="n">
         <v>43982</v>
       </c>
       <c r="B104" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="C104" s="1" t="n">
+        <v>24821</v>
+      </c>
+      <c r="D104" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E104" s="1" t="n">
         <v>2516</v>
       </c>
-      <c r="C104" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="D104" s="1" t="n">
-        <v>24821</v>
-      </c>
-      <c r="E104" s="1" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -2868,23 +2764,22 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="n">
         <v>43983</v>
       </c>
       <c r="B105" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="C105" s="1" t="n">
+        <v>25563</v>
+      </c>
+      <c r="D105" s="1" t="n">
+        <v>2156</v>
+      </c>
+      <c r="E105" s="1" t="n">
         <v>2979</v>
       </c>
-      <c r="C105" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="D105" s="1" t="n">
-        <v>25563</v>
-      </c>
-      <c r="E105" s="1" t="n">
-        <v>2156</v>
-      </c>
-      <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -2894,23 +2789,22 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="n">
         <v>43984</v>
       </c>
       <c r="B106" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="C106" s="1" t="n">
+        <v>26543</v>
+      </c>
+      <c r="D106" s="1" t="n">
+        <v>2073</v>
+      </c>
+      <c r="E106" s="1" t="n">
         <v>3117</v>
       </c>
-      <c r="C106" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="D106" s="1" t="n">
-        <v>26543</v>
-      </c>
-      <c r="E106" s="1" t="n">
-        <v>2073</v>
-      </c>
-      <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -2920,23 +2814,22 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="n">
         <v>43985</v>
       </c>
       <c r="B107" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="C107" s="1" t="n">
+        <v>27478</v>
+      </c>
+      <c r="D107" s="1" t="n">
+        <v>2129</v>
+      </c>
+      <c r="E107" s="1" t="n">
         <v>3134</v>
       </c>
-      <c r="C107" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="D107" s="1" t="n">
-        <v>27478</v>
-      </c>
-      <c r="E107" s="1" t="n">
-        <v>2129</v>
-      </c>
-      <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -2946,23 +2839,22 @@
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
     </row>
-    <row r="108" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="n">
         <v>43986</v>
       </c>
       <c r="B108" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="C108" s="1" t="n">
+        <v>28714</v>
+      </c>
+      <c r="D108" s="1" t="n">
+        <v>2279</v>
+      </c>
+      <c r="E108" s="1" t="n">
         <v>3574</v>
       </c>
-      <c r="C108" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="D108" s="1" t="n">
-        <v>28714</v>
-      </c>
-      <c r="E108" s="1" t="n">
-        <v>2279</v>
-      </c>
-      <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -2972,23 +2864,22 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="n">
         <v>43987</v>
       </c>
       <c r="B109" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="C109" s="1" t="n">
+        <v>29281</v>
+      </c>
+      <c r="D109" s="1" t="n">
+        <v>2256</v>
+      </c>
+      <c r="E109" s="1" t="n">
         <v>2886</v>
       </c>
-      <c r="C109" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="D109" s="1" t="n">
-        <v>29281</v>
-      </c>
-      <c r="E109" s="1" t="n">
-        <v>2256</v>
-      </c>
-      <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -2998,23 +2889,22 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="n">
         <v>43988</v>
       </c>
       <c r="B110" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="C110" s="1" t="n">
+        <v>29178</v>
+      </c>
+      <c r="D110" s="1" t="n">
+        <v>2297</v>
+      </c>
+      <c r="E110" s="1" t="n">
         <v>2269</v>
       </c>
-      <c r="C110" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="D110" s="1" t="n">
-        <v>29178</v>
-      </c>
-      <c r="E110" s="1" t="n">
-        <v>2297</v>
-      </c>
-      <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -3024,23 +2914,22 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="n">
         <v>43989</v>
       </c>
       <c r="B111" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="C111" s="1" t="n">
+        <v>29159</v>
+      </c>
+      <c r="D111" s="1" t="n">
+        <v>2311</v>
+      </c>
+      <c r="E111" s="1" t="n">
         <v>2364</v>
       </c>
-      <c r="C111" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="D111" s="1" t="n">
-        <v>29159</v>
-      </c>
-      <c r="E111" s="1" t="n">
-        <v>2311</v>
-      </c>
-      <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
@@ -3050,23 +2939,22 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
     </row>
-    <row r="112" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="n">
         <v>43990</v>
       </c>
       <c r="B112" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="C112" s="1" t="n">
+        <v>29121</v>
+      </c>
+      <c r="D112" s="1" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E112" s="1" t="n">
         <v>2043</v>
       </c>
-      <c r="C112" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="D112" s="1" t="n">
-        <v>29121</v>
-      </c>
-      <c r="E112" s="1" t="n">
-        <v>2011</v>
-      </c>
-      <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -3076,23 +2964,22 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="n">
         <v>43991</v>
       </c>
       <c r="B113" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="C113" s="1" t="n">
+        <v>29045</v>
+      </c>
+      <c r="D113" s="1" t="n">
+        <v>2097</v>
+      </c>
+      <c r="E113" s="1" t="n">
         <v>2095</v>
       </c>
-      <c r="C113" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="D113" s="1" t="n">
-        <v>29045</v>
-      </c>
-      <c r="E113" s="1" t="n">
-        <v>2097</v>
-      </c>
-      <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -3102,23 +2989,22 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="n">
         <v>43992</v>
       </c>
       <c r="B114" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="C114" s="1" t="n">
+        <v>28842</v>
+      </c>
+      <c r="D114" s="1" t="n">
+        <v>2133</v>
+      </c>
+      <c r="E114" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="C114" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="D114" s="1" t="n">
-        <v>28842</v>
-      </c>
-      <c r="E114" s="1" t="n">
-        <v>2133</v>
-      </c>
-      <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -3128,23 +3014,22 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="n">
         <v>43993</v>
       </c>
       <c r="B115" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="C115" s="1" t="n">
+        <v>28909</v>
+      </c>
+      <c r="D115" s="1" t="n">
+        <v>2073</v>
+      </c>
+      <c r="E115" s="1" t="n">
         <v>2218</v>
       </c>
-      <c r="C115" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="D115" s="1" t="n">
-        <v>28909</v>
-      </c>
-      <c r="E115" s="1" t="n">
-        <v>2073</v>
-      </c>
-      <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -3154,23 +3039,22 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="n">
         <v>43994</v>
       </c>
       <c r="B116" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="C116" s="1" t="n">
+        <v>29237</v>
+      </c>
+      <c r="D116" s="1" t="n">
+        <v>1986</v>
+      </c>
+      <c r="E116" s="1" t="n">
         <v>2389</v>
       </c>
-      <c r="C116" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="D116" s="1" t="n">
-        <v>29237</v>
-      </c>
-      <c r="E116" s="1" t="n">
-        <v>1986</v>
-      </c>
-      <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -3180,23 +3064,22 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="n">
         <v>43995</v>
       </c>
       <c r="B117" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="C117" s="1" t="n">
+        <v>29477</v>
+      </c>
+      <c r="D117" s="1" t="n">
+        <v>2099</v>
+      </c>
+      <c r="E117" s="1" t="n">
         <v>2410</v>
       </c>
-      <c r="C117" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="D117" s="1" t="n">
-        <v>29477</v>
-      </c>
-      <c r="E117" s="1" t="n">
-        <v>2099</v>
-      </c>
-      <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -3206,23 +3089,22 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="n">
         <v>43996</v>
       </c>
       <c r="B118" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="C118" s="1" t="n">
+        <v>29916</v>
+      </c>
+      <c r="D118" s="1" t="n">
+        <v>1926</v>
+      </c>
+      <c r="E118" s="1" t="n">
         <v>2472</v>
       </c>
-      <c r="C118" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="D118" s="1" t="n">
-        <v>29916</v>
-      </c>
-      <c r="E118" s="1" t="n">
-        <v>1926</v>
-      </c>
-      <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -3232,23 +3114,22 @@
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
     </row>
-    <row r="119" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="n">
         <v>43997</v>
       </c>
       <c r="B119" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="C119" s="1" t="n">
+        <v>30336</v>
+      </c>
+      <c r="D119" s="1" t="n">
+        <v>1916</v>
+      </c>
+      <c r="E119" s="1" t="n">
         <v>2449</v>
       </c>
-      <c r="C119" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="D119" s="1" t="n">
-        <v>30336</v>
-      </c>
-      <c r="E119" s="1" t="n">
-        <v>1916</v>
-      </c>
-      <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -3258,23 +3139,22 @@
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="n">
         <v>43998</v>
       </c>
       <c r="B120" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="C120" s="1" t="n">
+        <v>30699</v>
+      </c>
+      <c r="D120" s="1" t="n">
+        <v>2085</v>
+      </c>
+      <c r="E120" s="1" t="n">
         <v>2563</v>
       </c>
-      <c r="C120" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="D120" s="1" t="n">
-        <v>30699</v>
-      </c>
-      <c r="E120" s="1" t="n">
-        <v>2085</v>
-      </c>
-      <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -3284,23 +3164,22 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="n">
         <v>43999</v>
       </c>
       <c r="B121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="C121" s="1" t="n">
+        <v>31054</v>
+      </c>
+      <c r="D121" s="1" t="n">
+        <v>2137</v>
+      </c>
+      <c r="E121" s="1" t="n">
         <v>2612</v>
       </c>
-      <c r="C121" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="D121" s="1" t="n">
-        <v>31054</v>
-      </c>
-      <c r="E121" s="1" t="n">
-        <v>2137</v>
-      </c>
-      <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -3310,23 +3189,22 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="n">
         <v>44000</v>
       </c>
       <c r="B122" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="C122" s="1" t="n">
+        <v>31384</v>
+      </c>
+      <c r="D122" s="1" t="n">
+        <v>2179</v>
+      </c>
+      <c r="E122" s="1" t="n">
         <v>2596</v>
       </c>
-      <c r="C122" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="D122" s="1" t="n">
-        <v>31384</v>
-      </c>
-      <c r="E122" s="1" t="n">
-        <v>2179</v>
-      </c>
-      <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -3336,23 +3214,22 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="n">
         <v>44001</v>
       </c>
       <c r="B123" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="C123" s="1" t="n">
+        <v>31678</v>
+      </c>
+      <c r="D123" s="1" t="n">
+        <v>2201</v>
+      </c>
+      <c r="E123" s="1" t="n">
         <v>2615</v>
       </c>
-      <c r="C123" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="D123" s="1" t="n">
-        <v>31678</v>
-      </c>
-      <c r="E123" s="1" t="n">
-        <v>2201</v>
-      </c>
-      <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -3362,23 +3239,22 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
     </row>
-    <row r="124" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="n">
         <v>44002</v>
       </c>
       <c r="B124" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="C124" s="1" t="n">
+        <v>31693</v>
+      </c>
+      <c r="D124" s="1" t="n">
+        <v>2192</v>
+      </c>
+      <c r="E124" s="1" t="n">
         <v>2322</v>
       </c>
-      <c r="C124" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="D124" s="1" t="n">
-        <v>31693</v>
-      </c>
-      <c r="E124" s="1" t="n">
-        <v>2192</v>
-      </c>
-      <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
